--- a/scenario_1/scenario_one_simulated_flu_codebook.xlsx
+++ b/scenario_1/scenario_one_simulated_flu_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwheeler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0AB124-065D-4490-B51E-9C44936B7826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF87EF17-C746-4D24-9B74-EA18F3164AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="3480" windowWidth="34755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="3480" windowWidth="34755" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ca_vax_rates_quarter" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>Column Name</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Cumulative Up to Date Vax</t>
+  </si>
+  <si>
+    <t>County of residence of flu cases</t>
+  </si>
+  <si>
+    <t>The county reported is the county of a residence of the patient on the lab report indicating a positive flu test</t>
   </si>
 </sst>
 </file>
@@ -491,12 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -538,6 +538,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1716,217 +1722,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.85" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="106.9" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="44.1" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="140.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="38.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" ht="25.5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="25.5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="12.75">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1944,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22849410-2D43-4145-8BE5-D38CB8653EC6}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1959,269 +1965,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="38.85" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>43</v>
+      <c r="E3" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="76.5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="44.1" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="12.75">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="25.5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="12.75">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="25.5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="25.5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="25.5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="25.5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="12.75">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="89.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="38.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2254,205 +2260,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="89.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="12.75">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="44.1" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="12.75">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="25.5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="25.5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="25.5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="12.75">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2485,218 +2491,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="12.75">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="89.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="12.75">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="44.1" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="12.75">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="12.75">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="25.5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="25.5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="25.5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" ht="12.75">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
